--- a/ExcelSheets/ExcelSheets.xlsx
+++ b/ExcelSheets/ExcelSheets.xlsx
@@ -30,13 +30,13 @@
     <t>aaaa</t>
   </si>
   <si>
-    <t>autooooaaaa</t>
-  </si>
-  <si>
-    <t>auto111121111@autoa.com</t>
-  </si>
-  <si>
-    <t>aaaaautomationn</t>
+    <t>aaawwwaautomationn</t>
+  </si>
+  <si>
+    <t>auto1111121333111@autoa.com</t>
+  </si>
+  <si>
+    <t>autowewoooaaaa</t>
   </si>
 </sst>
 </file>
@@ -389,23 +389,23 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D1">
         <v>111111</v>

--- a/ExcelSheets/ExcelSheets.xlsx
+++ b/ExcelSheets/ExcelSheets.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>autooo</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>autowewoooaaaa</t>
+  </si>
+  <si>
+    <t>omniful</t>
+  </si>
+  <si>
+    <t>ibtikar2020</t>
+  </si>
+  <si>
+    <t>https://shopatculture.com/</t>
+  </si>
+  <si>
+    <t>http://shopatculture.com/</t>
+  </si>
+  <si>
+    <t>omnifull</t>
+  </si>
+  <si>
+    <t>ibtikar20200</t>
   </si>
 </sst>
 </file>
@@ -389,46 +407,49 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1">
-        <v>111111</v>
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>111111</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -436,12 +457,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ExcelSheets/ExcelSheets.xlsx
+++ b/ExcelSheets/ExcelSheets.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmaa\Desktop\Sessions (Ibtikar)\excel\Omniful\ExcelSheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FC2DB9-9C5B-4BB9-A4E9-0F889BA7169D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="3975" yWindow="1170" windowWidth="13875" windowHeight="8910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>autooo</t>
   </si>
@@ -55,12 +61,21 @@
   </si>
   <si>
     <t>ibtikar20200</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>automation@test.com</t>
+  </si>
+  <si>
+    <t>automation@test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,6 +128,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -160,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,9 +211,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,6 +263,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,10 +455,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -448,15 +500,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -516,23 +568,57 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{14324174-20B6-4448-8D8B-4A31FC32C7A9}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{C70B6EB6-98D3-466C-962C-C75355E99AF8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExcelSheets/ExcelSheets.xlsx
+++ b/ExcelSheets/ExcelSheets.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmaa\Desktop\Sessions (Ibtikar)\excel\Omniful\ExcelSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmaa\Documents\excel\Omniful\ExcelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FC2DB9-9C5B-4BB9-A4E9-0F889BA7169D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6B489B-D94F-4B7E-BBCA-23683E6FB022}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="1170" windowWidth="13875" windowHeight="8910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="13875" windowHeight="8910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>autooo</t>
   </si>
@@ -70,6 +72,36 @@
   </si>
   <si>
     <t>automation@test</t>
+  </si>
+  <si>
+    <t>test test test test test test test test test test test test test test test test test test test testttt</t>
+  </si>
+  <si>
+    <t>AA-01</t>
+  </si>
+  <si>
+    <t>testt</t>
+  </si>
+  <si>
+    <t>asmaa0abd.elkerim@gmail.com</t>
+  </si>
+  <si>
+    <t>testttt</t>
+  </si>
+  <si>
+    <t>asmaa0abd.elkerim</t>
+  </si>
+  <si>
+    <t>asmaa0abdelkerim</t>
+  </si>
+  <si>
+    <t>asaoudbfSJDBFC AIS GKJFBG LKDJF GKDJF GSKDJFB DKJF BKJDGB KDJF BKJB GSKFJ BKDFJBN KSDJFB DSKFJB ksdbd</t>
+  </si>
+  <si>
+    <t>test.test</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -579,15 +611,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="102" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
@@ -614,6 +646,17 @@
         <v>123456789</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{14324174-20B6-4448-8D8B-4A31FC32C7A9}"/>
@@ -621,4 +664,75 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69A885F-8EA3-4D27-B6EB-C51E3AE9269B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2332FA3-3BB1-4C91-8764-AA50967EDD3F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1">
+        <v>7188545141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{694DCDA9-4B29-412C-A28E-CEE939C970CF}"/>
+    <hyperlink ref="B2" r:id="rId2" display="asmaa0abd.elkerim@gmail.com" xr:uid="{343E0851-93D7-4B81-8C0E-DC5E10EE2FE8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ExcelSheets/ExcelSheets.xlsx
+++ b/ExcelSheets/ExcelSheets.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmaa\Documents\excel\Omniful\ExcelSheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6B489B-D94F-4B7E-BBCA-23683E6FB022}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="13875" windowHeight="8910" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="13875" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>autooo</t>
   </si>
@@ -102,12 +96,18 @@
   </si>
   <si>
     <t>hello</t>
+  </si>
+  <si>
+    <t>Client Created</t>
+  </si>
+  <si>
+    <t>The given data was invalid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,26 +243,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,23 +278,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,11 +453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,10 +465,11 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -515,8 +482,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -529,18 +499,21 @@
       <c r="D2">
         <v>111111</v>
       </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -600,20 +573,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -659,15 +632,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{14324174-20B6-4448-8D8B-4A31FC32C7A9}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{C70B6EB6-98D3-466C-962C-C75355E99AF8}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69A885F-8EA3-4D27-B6EB-C51E3AE9269B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -693,7 +666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2332FA3-3BB1-4C91-8764-AA50967EDD3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -730,8 +703,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{694DCDA9-4B29-412C-A28E-CEE939C970CF}"/>
-    <hyperlink ref="B2" r:id="rId2" display="asmaa0abd.elkerim@gmail.com" xr:uid="{343E0851-93D7-4B81-8C0E-DC5E10EE2FE8}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="asmaa0abd.elkerim@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelSheets/ExcelSheets.xlsx
+++ b/ExcelSheets/ExcelSheets.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmaa\Desktop\excel\Omniful\ExcelSheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D6BF9E-6208-45E3-ADD3-9F5001C3420A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="13875" windowHeight="8910"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="13875" windowHeight="8910" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>autooo</t>
   </si>
@@ -102,12 +108,18 @@
   </si>
   <si>
     <t>The given data was invalid</t>
+  </si>
+  <si>
+    <t>Your changes have been saved.</t>
+  </si>
+  <si>
+    <t>Invalid data, please try again.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,9 +255,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,6 +307,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,10 +499,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -505,15 +551,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -573,21 +619,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,9 +641,10 @@
     <col min="1" max="1" width="102" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -607,8 +654,11 @@
       <c r="C1">
         <v>123456789</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -618,8 +668,11 @@
       <c r="C2">
         <v>123456789</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -632,32 +685,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -666,20 +728,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -689,8 +752,11 @@
       <c r="C1">
         <v>7188545141</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -700,11 +766,14 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="asmaa0abd.elkerim@gmail.com"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" display="asmaa0abd.elkerim@gmail.com" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelSheets/ExcelSheets.xlsx
+++ b/ExcelSheets/ExcelSheets.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asmaa\Desktop\excel\Omniful\ExcelSheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D6BF9E-6208-45E3-ADD3-9F5001C3420A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="13875" windowHeight="8910" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="13875" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>autooo</t>
   </si>
@@ -107,20 +101,20 @@
     <t>Client Created</t>
   </si>
   <si>
-    <t>The given data was invalid</t>
-  </si>
-  <si>
     <t>Your changes have been saved.</t>
   </si>
   <si>
     <t>Invalid data, please try again.</t>
+  </si>
+  <si>
+    <t>This Workspace Name is Used Before</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +129,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FFEA5455"/>
+      <name val="Qurillian W00 Bold"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,9 +157,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -222,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,26 +260,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,23 +295,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -499,11 +470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,8 +499,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -551,15 +522,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -619,21 +591,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +627,7 @@
         <v>123456789</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,7 +641,7 @@
         <v>123456789</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,18 +654,21 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -711,7 +686,7 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,7 +694,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -728,11 +703,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,11 +724,11 @@
       <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="2">
         <v>7188545141</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -763,17 +738,17 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" display="asmaa0abd.elkerim@gmail.com" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="asmaa0abd.elkerim@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelSheets/ExcelSheets.xlsx
+++ b/ExcelSheets/ExcelSheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="13875" windowHeight="8910"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="13875" windowHeight="8910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>autooo</t>
   </si>
@@ -59,15 +59,6 @@
     <t>ibtikar20200</t>
   </si>
   <si>
-    <t>automation</t>
-  </si>
-  <si>
-    <t>automation@test.com</t>
-  </si>
-  <si>
-    <t>automation@test</t>
-  </si>
-  <si>
     <t>test test test test test test test test test test test test test test test test test test test testttt</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>asaoudbfSJDBFC AIS GKJFBG LKDJF GKDJF GSKDJFB DKJF BKJDGB KDJF BKJB GSKFJ BKDFJBN KSDJFB DSKFJB ksdbd</t>
   </si>
   <si>
-    <t>test.test</t>
-  </si>
-  <si>
     <t>hello</t>
   </si>
   <si>
@@ -108,13 +96,22 @@
   </si>
   <si>
     <t>This Workspace Name is Used Before</t>
+  </si>
+  <si>
+    <t>h.a.deera001@gmail.com</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>h.a.deeeera001@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +129,11 @@
     </font>
     <font>
       <sz val="7.5"/>
+      <color rgb="FFEA5455"/>
+      <name val="Qurillian W00 Bold"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFEA5455"/>
       <name val="Qurillian W00 Bold"/>
     </font>
@@ -157,13 +159,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -473,11 +478,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
@@ -486,7 +491,7 @@
     <col min="5" max="5" width="56.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -500,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -517,7 +522,7 @@
         <v>111111</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -538,14 +543,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -556,7 +561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -567,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -578,7 +583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -602,68 +607,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="102" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1">
-        <v>123456789</v>
-      </c>
-      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>123456789</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
+        <v>111111</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -675,26 +662,26 @@
       <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="80.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -710,39 +697,39 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2">
         <v>7188545141</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelSheets/ExcelSheets.xlsx
+++ b/ExcelSheets/ExcelSheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="13875" windowHeight="8910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="3300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E9"/>
 </workbook>
 </file>
 
@@ -32,15 +33,6 @@
     <t>aaaa</t>
   </si>
   <si>
-    <t>aaawwwaautomationn</t>
-  </si>
-  <si>
-    <t>auto1111121333111@autoa.com</t>
-  </si>
-  <si>
-    <t>autowewoooaaaa</t>
-  </si>
-  <si>
     <t>omniful</t>
   </si>
   <si>
@@ -104,7 +96,16 @@
     <t>Session</t>
   </si>
   <si>
-    <t>h.a.deeeera001@gmail.com</t>
+    <t>session</t>
+  </si>
+  <si>
+    <t>session21@gmail.com</t>
+  </si>
+  <si>
+    <t>sessionautomation</t>
+  </si>
+  <si>
+    <t>hadeer@session.com</t>
   </si>
 </sst>
 </file>
@@ -478,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -505,24 +506,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>111111</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -552,46 +553,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -609,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -623,19 +624,19 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -670,18 +671,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -706,30 +707,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2">
         <v>7188545141</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelSheets/ExcelSheets.xlsx
+++ b/ExcelSheets/ExcelSheets.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A7326B0E-0E4E-423E-877D-245AEF62419A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="3300"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="14895" windowHeight="8205" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +13,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E9"/>
+  <oleSize ref="A1:O17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>autooo</t>
   </si>
@@ -106,12 +108,21 @@
   </si>
   <si>
     <t>hadeer@session.com</t>
+  </si>
+  <si>
+    <t>pos_id</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>"24-MB01"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -233,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +277,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,6 +329,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,10 +521,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -528,8 +573,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -537,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -597,17 +642,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -648,7 +693,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -656,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -691,7 +736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -735,9 +780,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="asmaa0abd.elkerim@gmail.com"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" display="asmaa0abd.elkerim@gmail.com" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57393FDF-D1F5-4E4E-9FB4-54ACE03EDBE6}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>